--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H2">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N2">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O2">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P2">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q2">
-        <v>867.8791953453347</v>
+        <v>1011.24143548773</v>
       </c>
       <c r="R2">
-        <v>867.8791953453347</v>
+        <v>9101.172919389566</v>
       </c>
       <c r="S2">
-        <v>0.1262060238890762</v>
+        <v>0.1265518501405503</v>
       </c>
       <c r="T2">
-        <v>0.1262060238890762</v>
+        <v>0.1265518501405503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H3">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N3">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O3">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P3">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q3">
-        <v>2.040800434284861</v>
+        <v>2.636754764334444</v>
       </c>
       <c r="R3">
-        <v>2.040800434284861</v>
+        <v>23.73079287901</v>
       </c>
       <c r="S3">
-        <v>0.0002967709212797837</v>
+        <v>0.000329976781096292</v>
       </c>
       <c r="T3">
-        <v>0.0002967709212797837</v>
+        <v>0.0003299767810962921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H4">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N4">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O4">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P4">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q4">
-        <v>0.5710639741679728</v>
+        <v>0.9087931116094445</v>
       </c>
       <c r="R4">
-        <v>0.5710639741679728</v>
+        <v>8.179138004485001</v>
       </c>
       <c r="S4">
-        <v>8.304348572079339E-05</v>
+        <v>0.0001137309505258681</v>
       </c>
       <c r="T4">
-        <v>8.304348572079339E-05</v>
+        <v>0.0001137309505258681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H5">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N5">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O5">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P5">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q5">
-        <v>8.297891371653686</v>
+        <v>17.43015054877833</v>
       </c>
       <c r="R5">
-        <v>8.297891371653686</v>
+        <v>156.871354939005</v>
       </c>
       <c r="S5">
-        <v>0.001206670101434082</v>
+        <v>0.002181296891886499</v>
       </c>
       <c r="T5">
-        <v>0.001206670101434082</v>
+        <v>0.002181296891886499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H6">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J6">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N6">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O6">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P6">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q6">
-        <v>3473.499739081501</v>
+        <v>3659.205546903142</v>
       </c>
       <c r="R6">
-        <v>3473.499739081501</v>
+        <v>32932.84992212828</v>
       </c>
       <c r="S6">
-        <v>0.5051124550517506</v>
+        <v>0.4579314254283994</v>
       </c>
       <c r="T6">
-        <v>0.5051124550517506</v>
+        <v>0.4579314254283994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H7">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J7">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N7">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O7">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P7">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q7">
-        <v>8.16786462220152</v>
+        <v>9.541171198965333</v>
       </c>
       <c r="R7">
-        <v>8.16786462220152</v>
+        <v>85.870540790688</v>
       </c>
       <c r="S7">
-        <v>0.001187761756660303</v>
+        <v>0.001194030253669769</v>
       </c>
       <c r="T7">
-        <v>0.001187761756660303</v>
+        <v>0.00119403025366977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H8">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J8">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N8">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O8">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P8">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q8">
-        <v>2.285560681613085</v>
+        <v>3.288493408485334</v>
       </c>
       <c r="R8">
-        <v>2.285560681613085</v>
+        <v>29.596440676368</v>
       </c>
       <c r="S8">
-        <v>0.0003323636832529642</v>
+        <v>0.0004115386399471496</v>
       </c>
       <c r="T8">
-        <v>0.0003323636832529642</v>
+        <v>0.0004115386399471496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H9">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J9">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N9">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O9">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P9">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q9">
-        <v>33.21052476997904</v>
+        <v>63.071489491216</v>
       </c>
       <c r="R9">
-        <v>33.21052476997904</v>
+        <v>567.643405420944</v>
       </c>
       <c r="S9">
-        <v>0.004829437443561438</v>
+        <v>0.007893084090629622</v>
       </c>
       <c r="T9">
-        <v>0.004829437443561438</v>
+        <v>0.007893084090629623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H10">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N10">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O10">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P10">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q10">
-        <v>1363.953678669611</v>
+        <v>1777.401815096284</v>
       </c>
       <c r="R10">
-        <v>1363.953678669611</v>
+        <v>15996.61633586656</v>
       </c>
       <c r="S10">
-        <v>0.1983446215521678</v>
+        <v>0.2224330216800501</v>
       </c>
       <c r="T10">
-        <v>0.1983446215521678</v>
+        <v>0.2224330216800501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H11">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N11">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O11">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P11">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q11">
-        <v>3.207309582603581</v>
+        <v>4.634474557336</v>
       </c>
       <c r="R11">
-        <v>3.207309582603581</v>
+        <v>41.710271016024</v>
       </c>
       <c r="S11">
-        <v>0.0004664033796093766</v>
+        <v>0.0005799815049877823</v>
       </c>
       <c r="T11">
-        <v>0.0004664033796093766</v>
+        <v>0.0005799815049877823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H12">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N12">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O12">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P12">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q12">
-        <v>0.897480677609933</v>
+        <v>1.597334196796</v>
       </c>
       <c r="R12">
-        <v>0.897480677609933</v>
+        <v>14.376007771164</v>
       </c>
       <c r="S12">
-        <v>0.000130510638399799</v>
+        <v>0.000199898452341213</v>
       </c>
       <c r="T12">
-        <v>0.000130510638399799</v>
+        <v>0.000199898452341213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H13">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N13">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O13">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P13">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q13">
-        <v>13.04091574296166</v>
+        <v>30.635988731868</v>
       </c>
       <c r="R13">
-        <v>13.04091574296166</v>
+        <v>275.723898586812</v>
       </c>
       <c r="S13">
-        <v>0.001896395411502815</v>
+        <v>0.003833942042765505</v>
       </c>
       <c r="T13">
-        <v>0.001896395411502815</v>
+        <v>0.003833942042765505</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H14">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.968392959489</v>
+        <v>203.0691603333333</v>
       </c>
       <c r="N14">
-        <v>192.968392959489</v>
+        <v>609.207481</v>
       </c>
       <c r="O14">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="P14">
-        <v>0.9875854654679777</v>
+        <v>0.9796789863919257</v>
       </c>
       <c r="Q14">
-        <v>1085.982513496994</v>
+        <v>1380.499689049059</v>
       </c>
       <c r="R14">
-        <v>1085.982513496994</v>
+        <v>12424.49720144153</v>
       </c>
       <c r="S14">
-        <v>0.157922364974983</v>
+        <v>0.1727626891429259</v>
       </c>
       <c r="T14">
-        <v>0.157922364974983</v>
+        <v>0.1727626891429259</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H15">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.453761286440652</v>
+        <v>0.5294913333333333</v>
       </c>
       <c r="N15">
-        <v>0.453761286440652</v>
+        <v>1.588474</v>
       </c>
       <c r="O15">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="P15">
-        <v>0.002322287315596383</v>
+        <v>0.002554457466076205</v>
       </c>
       <c r="Q15">
-        <v>2.553665990678069</v>
+        <v>3.599574744983333</v>
       </c>
       <c r="R15">
-        <v>2.553665990678069</v>
+        <v>32.39617270485</v>
       </c>
       <c r="S15">
-        <v>0.0003713512580469191</v>
+        <v>0.0004504689263223608</v>
       </c>
       <c r="T15">
-        <v>0.0003713512580469191</v>
+        <v>0.0004504689263223609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H16">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.126973083308449</v>
+        <v>0.1824963333333333</v>
       </c>
       <c r="N16">
-        <v>0.126973083308449</v>
+        <v>0.547489</v>
       </c>
       <c r="O16">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915408</v>
       </c>
       <c r="P16">
-        <v>0.0006498306259274502</v>
+        <v>0.0008804282371915407</v>
       </c>
       <c r="Q16">
-        <v>0.7145758227189092</v>
+        <v>1.240642010858334</v>
       </c>
       <c r="R16">
-        <v>0.7145758227189092</v>
+        <v>11.165778097725</v>
       </c>
       <c r="S16">
-        <v>0.0001039128185538936</v>
+        <v>0.0001552601943773099</v>
       </c>
       <c r="T16">
-        <v>0.0001039128185538936</v>
+        <v>0.0001552601943773099</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H17">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.84499268046549</v>
+        <v>3.500179</v>
       </c>
       <c r="N17">
-        <v>1.84499268046549</v>
+        <v>10.500537</v>
       </c>
       <c r="O17">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="P17">
-        <v>0.00944241659049855</v>
+        <v>0.01688612790480639</v>
       </c>
       <c r="Q17">
-        <v>10.38320192123952</v>
+        <v>23.794829373325</v>
       </c>
       <c r="R17">
-        <v>10.38320192123952</v>
+        <v>214.153464359925</v>
       </c>
       <c r="S17">
-        <v>0.001509913634000214</v>
+        <v>0.002977804879524766</v>
       </c>
       <c r="T17">
-        <v>0.001509913634000214</v>
+        <v>0.002977804879524766</v>
       </c>
     </row>
   </sheetData>
